--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H2">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>225.4395200936666</v>
+        <v>35.64912951258044</v>
       </c>
       <c r="R2">
-        <v>2028.955680843</v>
+        <v>320.842165613224</v>
       </c>
       <c r="S2">
-        <v>0.01031530763759379</v>
+        <v>0.002553787935044992</v>
       </c>
       <c r="T2">
-        <v>0.0103153076375938</v>
+        <v>0.002553787935044993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H3">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>239.9252717834917</v>
+        <v>105.3179038770409</v>
       </c>
       <c r="R3">
-        <v>2159.327446051425</v>
+        <v>947.861134893368</v>
       </c>
       <c r="S3">
-        <v>0.01097812392189149</v>
+        <v>0.007544632812717081</v>
       </c>
       <c r="T3">
-        <v>0.01097812392189149</v>
+        <v>0.007544632812717081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H4">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>67.1788449371</v>
+        <v>14.03231707307378</v>
       </c>
       <c r="R4">
-        <v>604.6096044339</v>
+        <v>126.290853657664</v>
       </c>
       <c r="S4">
-        <v>0.003073864120969022</v>
+        <v>0.001005229651660791</v>
       </c>
       <c r="T4">
-        <v>0.003073864120969022</v>
+        <v>0.001005229651660791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>873.989883</v>
       </c>
       <c r="I5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>8368.212296957237</v>
+        <v>3014.569885953066</v>
       </c>
       <c r="R5">
-        <v>75313.91067261515</v>
+        <v>27131.1289735776</v>
       </c>
       <c r="S5">
-        <v>0.3828995208291093</v>
+        <v>0.2159540025060108</v>
       </c>
       <c r="T5">
-        <v>0.3828995208291093</v>
+        <v>0.2159540025060109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>873.989883</v>
       </c>
       <c r="I6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>8905.916801345367</v>
@@ -818,10 +818,10 @@
         <v>80153.25121210831</v>
       </c>
       <c r="S6">
-        <v>0.4075029593858404</v>
+        <v>0.6379909744995059</v>
       </c>
       <c r="T6">
-        <v>0.4075029593858404</v>
+        <v>0.637990974499506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>873.989883</v>
       </c>
       <c r="I7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>2493.648123738251</v>
+        <v>1186.604022510712</v>
       </c>
       <c r="R7">
-        <v>22442.83311364426</v>
+        <v>10679.43620259641</v>
       </c>
       <c r="S7">
-        <v>0.114100436008652</v>
+        <v>0.08500446091662123</v>
       </c>
       <c r="T7">
-        <v>0.114100436008652</v>
+        <v>0.08500446091662124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H8">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>658.0732430466754</v>
+        <v>160.3584280058603</v>
       </c>
       <c r="R8">
-        <v>5922.659187420079</v>
+        <v>1443.225852052743</v>
       </c>
       <c r="S8">
-        <v>0.03011108233052965</v>
+        <v>0.01148755732112978</v>
       </c>
       <c r="T8">
-        <v>0.03011108233052965</v>
+        <v>0.01148755732112978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H9">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>700.3581343050108</v>
+        <v>473.7454669302556</v>
       </c>
       <c r="R9">
-        <v>6303.223208745098</v>
+        <v>4263.709202372301</v>
       </c>
       <c r="S9">
-        <v>0.03204588800067436</v>
+        <v>0.03393758765699436</v>
       </c>
       <c r="T9">
-        <v>0.03204588800067436</v>
+        <v>0.03393758765699436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H10">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>196.0996028270426</v>
+        <v>63.12076445860532</v>
       </c>
       <c r="R10">
-        <v>1764.896425443384</v>
+        <v>568.0868801274479</v>
       </c>
       <c r="S10">
-        <v>0.008972817764739958</v>
+        <v>0.004521766700315002</v>
       </c>
       <c r="T10">
-        <v>0.008972817764739958</v>
+        <v>0.004521766700315003</v>
       </c>
     </row>
   </sheetData>
